--- a/public/awards_excel/students_awards.xlsx
+++ b/public/awards_excel/students_awards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\web_page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\s417\dept_website\public\awards_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168B55B6-2111-4087-8D06-29711FE77DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5E8E43-95EF-4006-97A8-EBFB52CB80ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8BA53235-45CB-4F16-B6D9-7586C609AB5E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -225,6 +225,30 @@
   </si>
   <si>
     <t>Awarded By</t>
+  </si>
+  <si>
+    <t>2025 July</t>
+  </si>
+  <si>
+    <t>2024 December 14</t>
+  </si>
+  <si>
+    <t>2018 April</t>
+  </si>
+  <si>
+    <t>2018 March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akriti Kumari </t>
+  </si>
+  <si>
+    <t>BUILD (Bold and Unique Idea Led Development) project  to develop a diagnostic kit for Urinary Tract Infections (UTI) and Antimicrobial Resistance (AMR).</t>
+  </si>
+  <si>
+    <t>IIT Hyderabad</t>
+  </si>
+  <si>
+    <t>2025 October</t>
   </si>
 </sst>
 </file>
@@ -598,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92226506-3CEE-42AC-A632-2D0776A972F3}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +634,7 @@
     <col min="2" max="2" width="47.5703125" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
     <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,16 +656,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45839</v>
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -648,36 +673,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -685,10 +710,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -702,13 +727,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2">
-        <v>45640</v>
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -716,30 +741,30 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7">
-        <v>2024</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>2024</v>
@@ -750,41 +775,41 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>2023</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -796,46 +821,46 @@
         <v>2023</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>2022</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
         <v>34</v>
@@ -847,12 +872,12 @@
         <v>2022</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
         <v>34</v>
@@ -864,12 +889,12 @@
         <v>2022</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
@@ -881,12 +906,12 @@
         <v>2022</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -898,12 +923,12 @@
         <v>2022</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
@@ -912,52 +937,55 @@
         <v>35</v>
       </c>
       <c r="D18">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>2021</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
       </c>
       <c r="D20">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="1">
-        <v>43191</v>
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>2019</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -965,13 +993,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="1">
-        <v>43160</v>
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
@@ -979,15 +1007,29 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>61</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>2017</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>56</v>
       </c>
     </row>
